--- a/data/time_series/monthly_cashflows_data.xlsx
+++ b/data/time_series/monthly_cashflows_data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBB26DD-1D8D-4801-9D98-0081BD894B3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AF9948-8CDA-4655-8764-FD96EC328203}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="1020" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBO" sheetId="3" r:id="rId1"/>
     <sheet name="Service Cost" sheetId="4" r:id="rId2"/>
+    <sheet name="PVFB" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>Time</t>
   </si>
@@ -426,7 +427,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +457,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44500</v>
+        <v>44469</v>
       </c>
       <c r="B2">
         <v>8.3333333333333329E-2</v>
@@ -473,7 +474,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44530</v>
+        <v>44500</v>
       </c>
       <c r="B3">
         <v>0.16666666666666666</v>
@@ -490,7 +491,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44561</v>
+        <v>44530</v>
       </c>
       <c r="B4">
         <v>0.25</v>
@@ -515,7 +516,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +544,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44500</v>
+        <v>44469</v>
       </c>
       <c r="B2">
         <v>8.3333333333333329E-2</v>
@@ -560,7 +561,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44530</v>
+        <v>44500</v>
       </c>
       <c r="B3">
         <v>0.16666666666666666</v>
@@ -577,7 +578,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44561</v>
+        <v>44530</v>
       </c>
       <c r="B4">
         <v>0.25</v>
@@ -590,6 +591,93 @@
       </c>
       <c r="E4">
         <v>70374.833333333328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CACE639-EE68-4699-8F79-8526A32901D2}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C2">
+        <v>94062706.083333328</v>
+      </c>
+      <c r="D2">
+        <v>19411727.166666668</v>
+      </c>
+      <c r="E2">
+        <v>31138970.833333332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44500</v>
+      </c>
+      <c r="B3">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C3">
+        <v>94062706.083333328</v>
+      </c>
+      <c r="D3">
+        <v>19411727.166666668</v>
+      </c>
+      <c r="E3">
+        <v>31138970.833333332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+      <c r="C4">
+        <v>94062706.083333328</v>
+      </c>
+      <c r="D4">
+        <v>19411727.166666668</v>
+      </c>
+      <c r="E4">
+        <v>31138970.833333332</v>
       </c>
     </row>
   </sheetData>

--- a/data/time_series/monthly_cashflows_data.xlsx
+++ b/data/time_series/monthly_cashflows_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AF9948-8CDA-4655-8764-FD96EC328203}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61146F1B-2482-4E1B-B8B6-9647A9410480}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1020" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9765" yWindow="2880" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBO" sheetId="3" r:id="rId1"/>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C87EC04-F0D7-4962-8060-71E551163D9D}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,57 +455,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44469</v>
-      </c>
-      <c r="B2">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C2">
-        <v>93873128.833333328</v>
-      </c>
-      <c r="D2">
-        <v>19389650.5</v>
-      </c>
-      <c r="E2">
-        <v>31075638.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44500</v>
-      </c>
-      <c r="B3">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C3">
-        <v>93873128.833333328</v>
-      </c>
-      <c r="D3">
-        <v>19389650.5</v>
-      </c>
-      <c r="E3">
-        <v>31075638.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B4">
-        <v>0.25</v>
-      </c>
-      <c r="C4">
-        <v>93873128.833333328</v>
-      </c>
-      <c r="D4">
-        <v>19389650.5</v>
-      </c>
-      <c r="E4">
-        <v>31075638.75</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -513,10 +462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DD4AB1-ABB7-48DB-8EB5-4ACD4E9E37CA}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,57 +491,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44469</v>
-      </c>
-      <c r="B2">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C2">
-        <v>184557.08333333334</v>
-      </c>
-      <c r="D2">
-        <v>4629.916666666667</v>
-      </c>
-      <c r="E2">
-        <v>70374.833333333328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44500</v>
-      </c>
-      <c r="B3">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C3">
-        <v>184557.08333333334</v>
-      </c>
-      <c r="D3">
-        <v>4629.916666666667</v>
-      </c>
-      <c r="E3">
-        <v>70374.833333333328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B4">
-        <v>0.25</v>
-      </c>
-      <c r="C4">
-        <v>184557.08333333334</v>
-      </c>
-      <c r="D4">
-        <v>4629.916666666667</v>
-      </c>
-      <c r="E4">
-        <v>70374.833333333328</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -600,10 +498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CACE639-EE68-4699-8F79-8526A32901D2}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,57 +527,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44469</v>
-      </c>
-      <c r="B2">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C2">
-        <v>94062706.083333328</v>
-      </c>
-      <c r="D2">
-        <v>19411727.166666668</v>
-      </c>
-      <c r="E2">
-        <v>31138970.833333332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44500</v>
-      </c>
-      <c r="B3">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C3">
-        <v>94062706.083333328</v>
-      </c>
-      <c r="D3">
-        <v>19411727.166666668</v>
-      </c>
-      <c r="E3">
-        <v>31138970.833333332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B4">
-        <v>0.25</v>
-      </c>
-      <c r="C4">
-        <v>94062706.083333328</v>
-      </c>
-      <c r="D4">
-        <v>19411727.166666668</v>
-      </c>
-      <c r="E4">
-        <v>31138970.833333332</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/time_series/monthly_cashflows_data.xlsx
+++ b/data/time_series/monthly_cashflows_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61146F1B-2482-4E1B-B8B6-9647A9410480}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978F63A6-9944-497A-9669-894B5AD57416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="2880" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBO" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Time</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C87EC04-F0D7-4962-8060-71E551163D9D}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:XFD4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +441,7 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -453,6 +456,9 @@
       </c>
       <c r="E1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -462,10 +468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DD4AB1-ABB7-48DB-8EB5-4ACD4E9E37CA}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +480,7 @@
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -489,6 +495,9 @@
       </c>
       <c r="E1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,10 +507,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CACE639-EE68-4699-8F79-8526A32901D2}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +519,7 @@
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -525,6 +534,9 @@
       </c>
       <c r="E1" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
